--- a/outputs/torch/ssd_r34.xlsx
+++ b/outputs/torch/ssd_r34.xlsx
@@ -123,7 +123,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -142,6 +142,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="0000FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="00FFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,7 +514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z146"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -517,7 +524,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="1" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -573,12 +580,18 @@
       <c r="V1" s="12" t="n"/>
       <c r="W1" s="10" t="inlineStr">
         <is>
-          <t>Operation Summary</t>
+          <t>Forward Ops</t>
         </is>
       </c>
       <c r="X1" s="11" t="n"/>
-      <c r="Y1" s="11" t="n"/>
-      <c r="Z1" s="12" t="n"/>
+      <c r="Y1" s="12" t="n"/>
+      <c r="Z1" s="10" t="inlineStr">
+        <is>
+          <t>Backward Ops</t>
+        </is>
+      </c>
+      <c r="AA1" s="11" t="n"/>
+      <c r="AB1" s="12" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="10" t="inlineStr"/>
@@ -614,62 +627,62 @@
       </c>
       <c r="H2" s="10" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="I2" s="10" t="inlineStr">
         <is>
-          <t>I2</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="J2" s="10" t="inlineStr">
         <is>
-          <t>I3</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="K2" s="10" t="inlineStr">
         <is>
-          <t>O1</t>
+          <t>Channel</t>
         </is>
       </c>
       <c r="L2" s="10" t="inlineStr">
         <is>
-          <t>O2</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="M2" s="10" t="inlineStr">
         <is>
-          <t>O3</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="N2" s="10" t="inlineStr">
         <is>
-          <t>k1</t>
+          <t>Height</t>
         </is>
       </c>
       <c r="O2" s="10" t="inlineStr">
         <is>
-          <t>k2</t>
+          <t>Width</t>
         </is>
       </c>
       <c r="P2" s="10" t="inlineStr">
         <is>
-          <t>s1</t>
+          <t>X</t>
         </is>
       </c>
       <c r="Q2" s="10" t="inlineStr">
         <is>
-          <t>s2</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R2" s="10" t="inlineStr">
         <is>
-          <t>p1</t>
+          <t>X</t>
         </is>
       </c>
       <c r="S2" s="10" t="inlineStr">
         <is>
-          <t>p2</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="T2" s="10" t="inlineStr">
@@ -704,7 +717,17 @@
       </c>
       <c r="Z2" s="10" t="inlineStr">
         <is>
-          <t>BackProp</t>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="AA2" s="10" t="inlineStr">
+        <is>
+          <t>ElemWise</t>
+        </is>
+      </c>
+      <c r="AB2" s="10" t="inlineStr">
+        <is>
+          <t>Activation</t>
         </is>
       </c>
     </row>
@@ -757,6 +780,8 @@
       <c r="X3" s="8" t="n"/>
       <c r="Y3" s="8" t="n"/>
       <c r="Z3" s="8" t="n"/>
+      <c r="AA3" s="8" t="n"/>
+      <c r="AB3" s="8" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
@@ -807,6 +832,8 @@
       <c r="X4" s="8" t="n"/>
       <c r="Y4" s="8" t="n"/>
       <c r="Z4" s="8" t="n"/>
+      <c r="AA4" s="8" t="n"/>
+      <c r="AB4" s="8" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
@@ -868,13 +895,15 @@
         <v>9408</v>
       </c>
       <c r="W5" s="8" t="n">
-        <v>13547520000</v>
+        <v>3386880000</v>
       </c>
       <c r="X5" s="8" t="n"/>
       <c r="Y5" s="8" t="n"/>
       <c r="Z5" s="8" t="n">
         <v>13547520000</v>
       </c>
+      <c r="AA5" s="8" t="n"/>
+      <c r="AB5" s="8" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
@@ -928,9 +957,11 @@
         <v>46080000</v>
       </c>
       <c r="Y6" s="8" t="n"/>
-      <c r="Z6" s="8" t="n">
+      <c r="Z6" s="8" t="n"/>
+      <c r="AA6" s="8" t="n">
         <v>46080000</v>
       </c>
+      <c r="AB6" s="8" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
@@ -982,7 +1013,9 @@
       <c r="Y7" s="8" t="n">
         <v>23040000</v>
       </c>
-      <c r="Z7" s="8" t="n">
+      <c r="Z7" s="8" t="n"/>
+      <c r="AA7" s="8" t="n"/>
+      <c r="AB7" s="8" t="n">
         <v>23040000</v>
       </c>
     </row>
@@ -1044,9 +1077,11 @@
         <v>46080000</v>
       </c>
       <c r="Y8" s="8" t="n"/>
-      <c r="Z8" s="8" t="n">
+      <c r="Z8" s="8" t="n"/>
+      <c r="AA8" s="8" t="n">
         <v>2073600000000</v>
       </c>
+      <c r="AB8" s="8" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
@@ -1097,6 +1132,8 @@
       <c r="X9" s="8" t="n"/>
       <c r="Y9" s="8" t="n"/>
       <c r="Z9" s="8" t="n"/>
+      <c r="AA9" s="8" t="n"/>
+      <c r="AB9" s="8" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
@@ -1149,6 +1186,8 @@
       <c r="X10" s="8" t="n"/>
       <c r="Y10" s="8" t="n"/>
       <c r="Z10" s="8" t="n"/>
+      <c r="AA10" s="8" t="n"/>
+      <c r="AB10" s="8" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
@@ -1217,6 +1256,8 @@
       <c r="Z11" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA11" s="8" t="n"/>
+      <c r="AB11" s="8" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
@@ -1270,9 +1311,11 @@
         <v>11520000</v>
       </c>
       <c r="Y12" s="8" t="n"/>
-      <c r="Z12" s="8" t="n">
+      <c r="Z12" s="8" t="n"/>
+      <c r="AA12" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB12" s="8" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
@@ -1324,7 +1367,9 @@
       <c r="Y13" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z13" s="8" t="n">
+      <c r="Z13" s="8" t="n"/>
+      <c r="AA13" s="8" t="n"/>
+      <c r="AB13" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -1395,6 +1440,8 @@
       <c r="Z14" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA14" s="8" t="n"/>
+      <c r="AB14" s="8" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
@@ -1448,9 +1495,11 @@
         <v>11520000</v>
       </c>
       <c r="Y15" s="8" t="n"/>
-      <c r="Z15" s="8" t="n">
+      <c r="Z15" s="8" t="n"/>
+      <c r="AA15" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB15" s="8" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
@@ -1502,7 +1551,9 @@
       <c r="Y16" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z16" s="8" t="n">
+      <c r="Z16" s="8" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -1557,6 +1608,8 @@
       <c r="X17" s="8" t="n"/>
       <c r="Y17" s="8" t="n"/>
       <c r="Z17" s="8" t="n"/>
+      <c r="AA17" s="8" t="n"/>
+      <c r="AB17" s="8" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
@@ -1625,6 +1678,8 @@
       <c r="Z18" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA18" s="8" t="n"/>
+      <c r="AB18" s="8" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
@@ -1678,9 +1733,11 @@
         <v>11520000</v>
       </c>
       <c r="Y19" s="8" t="n"/>
-      <c r="Z19" s="8" t="n">
+      <c r="Z19" s="8" t="n"/>
+      <c r="AA19" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB19" s="8" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
@@ -1732,7 +1789,9 @@
       <c r="Y20" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z20" s="8" t="n">
+      <c r="Z20" s="8" t="n"/>
+      <c r="AA20" s="8" t="n"/>
+      <c r="AB20" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -1803,6 +1862,8 @@
       <c r="Z21" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA21" s="8" t="n"/>
+      <c r="AB21" s="8" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
@@ -1856,9 +1917,11 @@
         <v>11520000</v>
       </c>
       <c r="Y22" s="8" t="n"/>
-      <c r="Z22" s="8" t="n">
+      <c r="Z22" s="8" t="n"/>
+      <c r="AA22" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB22" s="8" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
@@ -1910,7 +1973,9 @@
       <c r="Y23" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z23" s="8" t="n">
+      <c r="Z23" s="8" t="n"/>
+      <c r="AA23" s="8" t="n"/>
+      <c r="AB23" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -1965,6 +2030,8 @@
       <c r="X24" s="8" t="n"/>
       <c r="Y24" s="8" t="n"/>
       <c r="Z24" s="8" t="n"/>
+      <c r="AA24" s="8" t="n"/>
+      <c r="AB24" s="8" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
@@ -2033,6 +2100,8 @@
       <c r="Z25" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA25" s="8" t="n"/>
+      <c r="AB25" s="8" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
@@ -2086,9 +2155,11 @@
         <v>11520000</v>
       </c>
       <c r="Y26" s="8" t="n"/>
-      <c r="Z26" s="8" t="n">
+      <c r="Z26" s="8" t="n"/>
+      <c r="AA26" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB26" s="8" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
@@ -2140,7 +2211,9 @@
       <c r="Y27" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z27" s="8" t="n">
+      <c r="Z27" s="8" t="n"/>
+      <c r="AA27" s="8" t="n"/>
+      <c r="AB27" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -2211,6 +2284,8 @@
       <c r="Z28" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA28" s="8" t="n"/>
+      <c r="AB28" s="8" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
@@ -2264,9 +2339,11 @@
         <v>11520000</v>
       </c>
       <c r="Y29" s="8" t="n"/>
-      <c r="Z29" s="8" t="n">
+      <c r="Z29" s="8" t="n"/>
+      <c r="AA29" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB29" s="8" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="7" t="n">
@@ -2318,7 +2395,9 @@
       <c r="Y30" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z30" s="8" t="n">
+      <c r="Z30" s="8" t="n"/>
+      <c r="AA30" s="8" t="n"/>
+      <c r="AB30" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -2371,6 +2450,8 @@
       <c r="X31" s="8" t="n"/>
       <c r="Y31" s="8" t="n"/>
       <c r="Z31" s="8" t="n"/>
+      <c r="AA31" s="8" t="n"/>
+      <c r="AB31" s="8" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="7" t="n">
@@ -2423,6 +2504,8 @@
       <c r="X32" s="8" t="n"/>
       <c r="Y32" s="8" t="n"/>
       <c r="Z32" s="8" t="n"/>
+      <c r="AA32" s="8" t="n"/>
+      <c r="AB32" s="8" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="7" t="n">
@@ -2484,13 +2567,15 @@
         <v>73728</v>
       </c>
       <c r="W33" s="8" t="n">
-        <v>6635520000</v>
+        <v>1658880000</v>
       </c>
       <c r="X33" s="8" t="n"/>
       <c r="Y33" s="8" t="n"/>
       <c r="Z33" s="8" t="n">
         <v>6635520000</v>
       </c>
+      <c r="AA33" s="8" t="n"/>
+      <c r="AB33" s="8" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="7" t="n">
@@ -2544,9 +2629,11 @@
         <v>5760000</v>
       </c>
       <c r="Y34" s="8" t="n"/>
-      <c r="Z34" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z34" s="8" t="n"/>
+      <c r="AA34" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB34" s="8" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="7" t="n">
@@ -2598,7 +2685,9 @@
       <c r="Y35" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z35" s="8" t="n">
+      <c r="Z35" s="8" t="n"/>
+      <c r="AA35" s="8" t="n"/>
+      <c r="AB35" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -2669,6 +2758,8 @@
       <c r="Z36" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA36" s="8" t="n"/>
+      <c r="AB36" s="8" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="7" t="n">
@@ -2722,9 +2813,11 @@
         <v>5760000</v>
       </c>
       <c r="Y37" s="8" t="n"/>
-      <c r="Z37" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z37" s="8" t="n"/>
+      <c r="AA37" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB37" s="8" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="7" t="n">
@@ -2775,6 +2868,8 @@
       <c r="X38" s="8" t="n"/>
       <c r="Y38" s="8" t="n"/>
       <c r="Z38" s="8" t="n"/>
+      <c r="AA38" s="8" t="n"/>
+      <c r="AB38" s="8" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="7" t="n">
@@ -2836,13 +2931,15 @@
         <v>8192</v>
       </c>
       <c r="W39" s="8" t="n">
-        <v>737280000</v>
+        <v>184320000</v>
       </c>
       <c r="X39" s="8" t="n"/>
       <c r="Y39" s="8" t="n"/>
       <c r="Z39" s="8" t="n">
         <v>737280000</v>
       </c>
+      <c r="AA39" s="8" t="n"/>
+      <c r="AB39" s="8" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="7" t="n">
@@ -2896,9 +2993,11 @@
         <v>5760000</v>
       </c>
       <c r="Y40" s="8" t="n"/>
-      <c r="Z40" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z40" s="8" t="n"/>
+      <c r="AA40" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB40" s="8" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="7" t="n">
@@ -2950,7 +3049,9 @@
       <c r="Y41" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z41" s="8" t="n">
+      <c r="Z41" s="8" t="n"/>
+      <c r="AA41" s="8" t="n"/>
+      <c r="AB41" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -3005,6 +3106,8 @@
       <c r="X42" s="8" t="n"/>
       <c r="Y42" s="8" t="n"/>
       <c r="Z42" s="8" t="n"/>
+      <c r="AA42" s="8" t="n"/>
+      <c r="AB42" s="8" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="7" t="n">
@@ -3073,6 +3176,8 @@
       <c r="Z43" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA43" s="8" t="n"/>
+      <c r="AB43" s="8" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="7" t="n">
@@ -3126,9 +3231,11 @@
         <v>5760000</v>
       </c>
       <c r="Y44" s="8" t="n"/>
-      <c r="Z44" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z44" s="8" t="n"/>
+      <c r="AA44" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB44" s="8" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="7" t="n">
@@ -3180,7 +3287,9 @@
       <c r="Y45" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z45" s="8" t="n">
+      <c r="Z45" s="8" t="n"/>
+      <c r="AA45" s="8" t="n"/>
+      <c r="AB45" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -3251,6 +3360,8 @@
       <c r="Z46" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA46" s="8" t="n"/>
+      <c r="AB46" s="8" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="7" t="n">
@@ -3304,9 +3415,11 @@
         <v>5760000</v>
       </c>
       <c r="Y47" s="8" t="n"/>
-      <c r="Z47" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z47" s="8" t="n"/>
+      <c r="AA47" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB47" s="8" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="7" t="n">
@@ -3358,7 +3471,9 @@
       <c r="Y48" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z48" s="8" t="n">
+      <c r="Z48" s="8" t="n"/>
+      <c r="AA48" s="8" t="n"/>
+      <c r="AB48" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -3413,6 +3528,8 @@
       <c r="X49" s="8" t="n"/>
       <c r="Y49" s="8" t="n"/>
       <c r="Z49" s="8" t="n"/>
+      <c r="AA49" s="8" t="n"/>
+      <c r="AB49" s="8" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="7" t="n">
@@ -3481,6 +3598,8 @@
       <c r="Z50" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA50" s="8" t="n"/>
+      <c r="AB50" s="8" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="7" t="n">
@@ -3534,9 +3653,11 @@
         <v>5760000</v>
       </c>
       <c r="Y51" s="8" t="n"/>
-      <c r="Z51" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z51" s="8" t="n"/>
+      <c r="AA51" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB51" s="8" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="7" t="n">
@@ -3588,7 +3709,9 @@
       <c r="Y52" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z52" s="8" t="n">
+      <c r="Z52" s="8" t="n"/>
+      <c r="AA52" s="8" t="n"/>
+      <c r="AB52" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -3659,6 +3782,8 @@
       <c r="Z53" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA53" s="8" t="n"/>
+      <c r="AB53" s="8" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="7" t="n">
@@ -3712,9 +3837,11 @@
         <v>5760000</v>
       </c>
       <c r="Y54" s="8" t="n"/>
-      <c r="Z54" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z54" s="8" t="n"/>
+      <c r="AA54" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB54" s="8" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="7" t="n">
@@ -3766,7 +3893,9 @@
       <c r="Y55" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z55" s="8" t="n">
+      <c r="Z55" s="8" t="n"/>
+      <c r="AA55" s="8" t="n"/>
+      <c r="AB55" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -3821,6 +3950,8 @@
       <c r="X56" s="8" t="n"/>
       <c r="Y56" s="8" t="n"/>
       <c r="Z56" s="8" t="n"/>
+      <c r="AA56" s="8" t="n"/>
+      <c r="AB56" s="8" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="7" t="n">
@@ -3889,6 +4020,8 @@
       <c r="Z57" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA57" s="8" t="n"/>
+      <c r="AB57" s="8" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="7" t="n">
@@ -3942,9 +4075,11 @@
         <v>5760000</v>
       </c>
       <c r="Y58" s="8" t="n"/>
-      <c r="Z58" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z58" s="8" t="n"/>
+      <c r="AA58" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB58" s="8" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="7" t="n">
@@ -3996,7 +4131,9 @@
       <c r="Y59" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z59" s="8" t="n">
+      <c r="Z59" s="8" t="n"/>
+      <c r="AA59" s="8" t="n"/>
+      <c r="AB59" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -4067,6 +4204,8 @@
       <c r="Z60" s="8" t="n">
         <v>3317760000</v>
       </c>
+      <c r="AA60" s="8" t="n"/>
+      <c r="AB60" s="8" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="7" t="n">
@@ -4120,9 +4259,11 @@
         <v>5760000</v>
       </c>
       <c r="Y61" s="8" t="n"/>
-      <c r="Z61" s="8" t="n">
-        <v>5760000</v>
-      </c>
+      <c r="Z61" s="8" t="n"/>
+      <c r="AA61" s="8" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="AB61" s="8" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="7" t="n">
@@ -4174,7 +4315,9 @@
       <c r="Y62" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z62" s="8" t="n">
+      <c r="Z62" s="8" t="n"/>
+      <c r="AA62" s="8" t="n"/>
+      <c r="AB62" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -4227,6 +4370,8 @@
       <c r="X63" s="8" t="n"/>
       <c r="Y63" s="8" t="n"/>
       <c r="Z63" s="8" t="n"/>
+      <c r="AA63" s="8" t="n"/>
+      <c r="AB63" s="8" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="7" t="n">
@@ -4277,6 +4422,8 @@
       <c r="X64" s="8" t="n"/>
       <c r="Y64" s="8" t="n"/>
       <c r="Z64" s="8" t="n"/>
+      <c r="AA64" s="8" t="n"/>
+      <c r="AB64" s="8" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="7" t="n">
@@ -4329,6 +4476,8 @@
       <c r="X65" s="8" t="n"/>
       <c r="Y65" s="8" t="n"/>
       <c r="Z65" s="8" t="n"/>
+      <c r="AA65" s="8" t="n"/>
+      <c r="AB65" s="8" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="7" t="n">
@@ -4397,6 +4546,8 @@
       <c r="Z66" s="8" t="n">
         <v>6635520000</v>
       </c>
+      <c r="AA66" s="8" t="n"/>
+      <c r="AB66" s="8" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="7" t="n">
@@ -4450,9 +4601,11 @@
         <v>11520000</v>
       </c>
       <c r="Y67" s="8" t="n"/>
-      <c r="Z67" s="8" t="n">
+      <c r="Z67" s="8" t="n"/>
+      <c r="AA67" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB67" s="8" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="7" t="n">
@@ -4504,7 +4657,9 @@
       <c r="Y68" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z68" s="8" t="n">
+      <c r="Z68" s="8" t="n"/>
+      <c r="AA68" s="8" t="n"/>
+      <c r="AB68" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -4575,6 +4730,8 @@
       <c r="Z69" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA69" s="8" t="n"/>
+      <c r="AB69" s="8" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="7" t="n">
@@ -4628,9 +4785,11 @@
         <v>11520000</v>
       </c>
       <c r="Y70" s="8" t="n"/>
-      <c r="Z70" s="8" t="n">
+      <c r="Z70" s="8" t="n"/>
+      <c r="AA70" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB70" s="8" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="7" t="n">
@@ -4681,6 +4840,8 @@
       <c r="X71" s="8" t="n"/>
       <c r="Y71" s="8" t="n"/>
       <c r="Z71" s="8" t="n"/>
+      <c r="AA71" s="8" t="n"/>
+      <c r="AB71" s="8" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="7" t="n">
@@ -4749,6 +4910,8 @@
       <c r="Z72" s="8" t="n">
         <v>737280000</v>
       </c>
+      <c r="AA72" s="8" t="n"/>
+      <c r="AB72" s="8" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="7" t="n">
@@ -4802,9 +4965,11 @@
         <v>11520000</v>
       </c>
       <c r="Y73" s="8" t="n"/>
-      <c r="Z73" s="8" t="n">
+      <c r="Z73" s="8" t="n"/>
+      <c r="AA73" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB73" s="8" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="7" t="n">
@@ -4856,7 +5021,9 @@
       <c r="Y74" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z74" s="8" t="n">
+      <c r="Z74" s="8" t="n"/>
+      <c r="AA74" s="8" t="n"/>
+      <c r="AB74" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -4911,6 +5078,8 @@
       <c r="X75" s="8" t="n"/>
       <c r="Y75" s="8" t="n"/>
       <c r="Z75" s="8" t="n"/>
+      <c r="AA75" s="8" t="n"/>
+      <c r="AB75" s="8" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="7" t="n">
@@ -4979,6 +5148,8 @@
       <c r="Z76" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA76" s="8" t="n"/>
+      <c r="AB76" s="8" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="7" t="n">
@@ -5032,9 +5203,11 @@
         <v>11520000</v>
       </c>
       <c r="Y77" s="8" t="n"/>
-      <c r="Z77" s="8" t="n">
+      <c r="Z77" s="8" t="n"/>
+      <c r="AA77" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB77" s="8" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="7" t="n">
@@ -5086,7 +5259,9 @@
       <c r="Y78" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z78" s="8" t="n">
+      <c r="Z78" s="8" t="n"/>
+      <c r="AA78" s="8" t="n"/>
+      <c r="AB78" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -5157,6 +5332,8 @@
       <c r="Z79" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA79" s="8" t="n"/>
+      <c r="AB79" s="8" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="7" t="n">
@@ -5210,9 +5387,11 @@
         <v>11520000</v>
       </c>
       <c r="Y80" s="8" t="n"/>
-      <c r="Z80" s="8" t="n">
+      <c r="Z80" s="8" t="n"/>
+      <c r="AA80" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB80" s="8" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="7" t="n">
@@ -5264,7 +5443,9 @@
       <c r="Y81" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z81" s="8" t="n">
+      <c r="Z81" s="8" t="n"/>
+      <c r="AA81" s="8" t="n"/>
+      <c r="AB81" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -5319,6 +5500,8 @@
       <c r="X82" s="8" t="n"/>
       <c r="Y82" s="8" t="n"/>
       <c r="Z82" s="8" t="n"/>
+      <c r="AA82" s="8" t="n"/>
+      <c r="AB82" s="8" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="7" t="n">
@@ -5387,6 +5570,8 @@
       <c r="Z83" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA83" s="8" t="n"/>
+      <c r="AB83" s="8" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="7" t="n">
@@ -5440,9 +5625,11 @@
         <v>11520000</v>
       </c>
       <c r="Y84" s="8" t="n"/>
-      <c r="Z84" s="8" t="n">
+      <c r="Z84" s="8" t="n"/>
+      <c r="AA84" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB84" s="8" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="7" t="n">
@@ -5494,7 +5681,9 @@
       <c r="Y85" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z85" s="8" t="n">
+      <c r="Z85" s="8" t="n"/>
+      <c r="AA85" s="8" t="n"/>
+      <c r="AB85" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -5565,6 +5754,8 @@
       <c r="Z86" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA86" s="8" t="n"/>
+      <c r="AB86" s="8" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="7" t="n">
@@ -5618,9 +5809,11 @@
         <v>11520000</v>
       </c>
       <c r="Y87" s="8" t="n"/>
-      <c r="Z87" s="8" t="n">
+      <c r="Z87" s="8" t="n"/>
+      <c r="AA87" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB87" s="8" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="7" t="n">
@@ -5672,7 +5865,9 @@
       <c r="Y88" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z88" s="8" t="n">
+      <c r="Z88" s="8" t="n"/>
+      <c r="AA88" s="8" t="n"/>
+      <c r="AB88" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -5727,6 +5922,8 @@
       <c r="X89" s="8" t="n"/>
       <c r="Y89" s="8" t="n"/>
       <c r="Z89" s="8" t="n"/>
+      <c r="AA89" s="8" t="n"/>
+      <c r="AB89" s="8" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="7" t="n">
@@ -5795,6 +5992,8 @@
       <c r="Z90" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA90" s="8" t="n"/>
+      <c r="AB90" s="8" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="7" t="n">
@@ -5848,9 +6047,11 @@
         <v>11520000</v>
       </c>
       <c r="Y91" s="8" t="n"/>
-      <c r="Z91" s="8" t="n">
+      <c r="Z91" s="8" t="n"/>
+      <c r="AA91" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB91" s="8" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="7" t="n">
@@ -5902,7 +6103,9 @@
       <c r="Y92" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z92" s="8" t="n">
+      <c r="Z92" s="8" t="n"/>
+      <c r="AA92" s="8" t="n"/>
+      <c r="AB92" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -5973,6 +6176,8 @@
       <c r="Z93" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA93" s="8" t="n"/>
+      <c r="AB93" s="8" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="7" t="n">
@@ -6026,9 +6231,11 @@
         <v>11520000</v>
       </c>
       <c r="Y94" s="8" t="n"/>
-      <c r="Z94" s="8" t="n">
+      <c r="Z94" s="8" t="n"/>
+      <c r="AA94" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB94" s="8" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="7" t="n">
@@ -6080,7 +6287,9 @@
       <c r="Y95" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z95" s="8" t="n">
+      <c r="Z95" s="8" t="n"/>
+      <c r="AA95" s="8" t="n"/>
+      <c r="AB95" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -6135,6 +6344,8 @@
       <c r="X96" s="8" t="n"/>
       <c r="Y96" s="8" t="n"/>
       <c r="Z96" s="8" t="n"/>
+      <c r="AA96" s="8" t="n"/>
+      <c r="AB96" s="8" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="7" t="n">
@@ -6203,6 +6414,8 @@
       <c r="Z97" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA97" s="8" t="n"/>
+      <c r="AB97" s="8" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="7" t="n">
@@ -6256,9 +6469,11 @@
         <v>11520000</v>
       </c>
       <c r="Y98" s="8" t="n"/>
-      <c r="Z98" s="8" t="n">
+      <c r="Z98" s="8" t="n"/>
+      <c r="AA98" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB98" s="8" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="7" t="n">
@@ -6310,7 +6525,9 @@
       <c r="Y99" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z99" s="8" t="n">
+      <c r="Z99" s="8" t="n"/>
+      <c r="AA99" s="8" t="n"/>
+      <c r="AB99" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -6381,6 +6598,8 @@
       <c r="Z100" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA100" s="8" t="n"/>
+      <c r="AB100" s="8" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="7" t="n">
@@ -6434,9 +6653,11 @@
         <v>11520000</v>
       </c>
       <c r="Y101" s="8" t="n"/>
-      <c r="Z101" s="8" t="n">
+      <c r="Z101" s="8" t="n"/>
+      <c r="AA101" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB101" s="8" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="7" t="n">
@@ -6488,7 +6709,9 @@
       <c r="Y102" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z102" s="8" t="n">
+      <c r="Z102" s="8" t="n"/>
+      <c r="AA102" s="8" t="n"/>
+      <c r="AB102" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -6543,6 +6766,8 @@
       <c r="X103" s="8" t="n"/>
       <c r="Y103" s="8" t="n"/>
       <c r="Z103" s="8" t="n"/>
+      <c r="AA103" s="8" t="n"/>
+      <c r="AB103" s="8" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="7" t="n">
@@ -6611,6 +6836,8 @@
       <c r="Z104" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA104" s="8" t="n"/>
+      <c r="AB104" s="8" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="7" t="n">
@@ -6664,9 +6891,11 @@
         <v>11520000</v>
       </c>
       <c r="Y105" s="8" t="n"/>
-      <c r="Z105" s="8" t="n">
+      <c r="Z105" s="8" t="n"/>
+      <c r="AA105" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB105" s="8" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="7" t="n">
@@ -6718,7 +6947,9 @@
       <c r="Y106" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z106" s="8" t="n">
+      <c r="Z106" s="8" t="n"/>
+      <c r="AA106" s="8" t="n"/>
+      <c r="AB106" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -6789,6 +7020,8 @@
       <c r="Z107" s="8" t="n">
         <v>13271040000</v>
       </c>
+      <c r="AA107" s="8" t="n"/>
+      <c r="AB107" s="8" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="7" t="n">
@@ -6842,9 +7075,11 @@
         <v>11520000</v>
       </c>
       <c r="Y108" s="8" t="n"/>
-      <c r="Z108" s="8" t="n">
+      <c r="Z108" s="8" t="n"/>
+      <c r="AA108" s="8" t="n">
         <v>11520000</v>
       </c>
+      <c r="AB108" s="8" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="7" t="n">
@@ -6896,7 +7131,9 @@
       <c r="Y109" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z109" s="8" t="n">
+      <c r="Z109" s="8" t="n"/>
+      <c r="AA109" s="8" t="n"/>
+      <c r="AB109" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -6949,6 +7186,8 @@
       <c r="X110" s="8" t="n"/>
       <c r="Y110" s="8" t="n"/>
       <c r="Z110" s="8" t="n"/>
+      <c r="AA110" s="8" t="n"/>
+      <c r="AB110" s="8" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="7" t="n">
@@ -7017,6 +7256,8 @@
       <c r="Z111" s="8" t="n">
         <v>1474560000</v>
       </c>
+      <c r="AA111" s="8" t="n"/>
+      <c r="AB111" s="8" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="7" t="n">
@@ -7068,7 +7309,9 @@
       <c r="Y112" s="8" t="n">
         <v>5760000</v>
       </c>
-      <c r="Z112" s="8" t="n">
+      <c r="Z112" s="8" t="n"/>
+      <c r="AA112" s="8" t="n"/>
+      <c r="AB112" s="8" t="n">
         <v>5760000</v>
       </c>
     </row>
@@ -7132,13 +7375,15 @@
         <v>1180160</v>
       </c>
       <c r="W113" s="8" t="n">
-        <v>26544960000</v>
+        <v>6638400000</v>
       </c>
       <c r="X113" s="8" t="n"/>
       <c r="Y113" s="8" t="n"/>
       <c r="Z113" s="8" t="n">
         <v>26542080000</v>
       </c>
+      <c r="AA113" s="8" t="n"/>
+      <c r="AB113" s="8" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="7" t="n">
@@ -7190,7 +7435,9 @@
       <c r="Y114" s="8" t="n">
         <v>2880000</v>
       </c>
-      <c r="Z114" s="8" t="n">
+      <c r="Z114" s="8" t="n"/>
+      <c r="AA114" s="8" t="n"/>
+      <c r="AB114" s="8" t="n">
         <v>2880000</v>
       </c>
     </row>
@@ -7243,6 +7490,8 @@
       <c r="X115" s="8" t="n"/>
       <c r="Y115" s="8" t="n"/>
       <c r="Z115" s="8" t="n"/>
+      <c r="AA115" s="8" t="n"/>
+      <c r="AB115" s="8" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="7" t="n">
@@ -7311,6 +7560,8 @@
       <c r="Z116" s="8" t="n">
         <v>737280000</v>
       </c>
+      <c r="AA116" s="8" t="n"/>
+      <c r="AB116" s="8" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="7" t="n">
@@ -7362,7 +7613,9 @@
       <c r="Y117" s="8" t="n">
         <v>1440000</v>
       </c>
-      <c r="Z117" s="8" t="n">
+      <c r="Z117" s="8" t="n"/>
+      <c r="AA117" s="8" t="n"/>
+      <c r="AB117" s="8" t="n">
         <v>1440000</v>
       </c>
     </row>
@@ -7426,13 +7679,15 @@
         <v>1180160</v>
       </c>
       <c r="W118" s="8" t="n">
-        <v>6636259328</v>
+        <v>1704151040</v>
       </c>
       <c r="X118" s="8" t="n"/>
       <c r="Y118" s="8" t="n"/>
       <c r="Z118" s="8" t="n">
         <v>6635520000</v>
       </c>
+      <c r="AA118" s="8" t="n"/>
+      <c r="AB118" s="8" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="7" t="n">
@@ -7484,7 +7739,9 @@
       <c r="Y119" s="8" t="n">
         <v>739328</v>
       </c>
-      <c r="Z119" s="8" t="n">
+      <c r="Z119" s="8" t="n"/>
+      <c r="AA119" s="8" t="n"/>
+      <c r="AB119" s="8" t="n">
         <v>739328</v>
       </c>
     </row>
@@ -7537,6 +7794,8 @@
       <c r="X120" s="8" t="n"/>
       <c r="Y120" s="8" t="n"/>
       <c r="Z120" s="8" t="n"/>
+      <c r="AA120" s="8" t="n"/>
+      <c r="AB120" s="8" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="7" t="n">
@@ -7605,6 +7864,8 @@
       <c r="Z121" s="8" t="n">
         <v>94633984</v>
       </c>
+      <c r="AA121" s="8" t="n"/>
+      <c r="AB121" s="8" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="7" t="n">
@@ -7656,7 +7917,9 @@
       <c r="Y122" s="8" t="n">
         <v>184832</v>
       </c>
-      <c r="Z122" s="8" t="n">
+      <c r="Z122" s="8" t="n"/>
+      <c r="AA122" s="8" t="n"/>
+      <c r="AB122" s="8" t="n">
         <v>184832</v>
       </c>
     </row>
@@ -7720,13 +7983,15 @@
         <v>295168</v>
       </c>
       <c r="W123" s="8" t="n">
-        <v>425945344</v>
+        <v>106555648</v>
       </c>
       <c r="X123" s="8" t="n"/>
       <c r="Y123" s="8" t="n"/>
       <c r="Z123" s="8" t="n">
         <v>425852928</v>
       </c>
+      <c r="AA123" s="8" t="n"/>
+      <c r="AB123" s="8" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="7" t="n">
@@ -7778,7 +8043,9 @@
       <c r="Y124" s="8" t="n">
         <v>92416</v>
       </c>
-      <c r="Z124" s="8" t="n">
+      <c r="Z124" s="8" t="n"/>
+      <c r="AA124" s="8" t="n"/>
+      <c r="AB124" s="8" t="n">
         <v>92416</v>
       </c>
     </row>
@@ -7831,6 +8098,8 @@
       <c r="X125" s="8" t="n"/>
       <c r="Y125" s="8" t="n"/>
       <c r="Z125" s="8" t="n"/>
+      <c r="AA125" s="8" t="n"/>
+      <c r="AB125" s="8" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="7" t="n">
@@ -7899,6 +8168,8 @@
       <c r="Z126" s="8" t="n">
         <v>11829248</v>
       </c>
+      <c r="AA126" s="8" t="n"/>
+      <c r="AB126" s="8" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="7" t="n">
@@ -7950,7 +8221,9 @@
       <c r="Y127" s="8" t="n">
         <v>46208</v>
       </c>
-      <c r="Z127" s="8" t="n">
+      <c r="Z127" s="8" t="n"/>
+      <c r="AA127" s="8" t="n"/>
+      <c r="AB127" s="8" t="n">
         <v>46208</v>
       </c>
     </row>
@@ -8014,13 +8287,15 @@
         <v>295168</v>
       </c>
       <c r="W128" s="8" t="n">
-        <v>106483968</v>
+        <v>23908608</v>
       </c>
       <c r="X128" s="8" t="n"/>
       <c r="Y128" s="8" t="n"/>
       <c r="Z128" s="8" t="n">
         <v>106463232</v>
       </c>
+      <c r="AA128" s="8" t="n"/>
+      <c r="AB128" s="8" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="7" t="n">
@@ -8072,7 +8347,9 @@
       <c r="Y129" s="8" t="n">
         <v>20736</v>
       </c>
-      <c r="Z129" s="8" t="n">
+      <c r="Z129" s="8" t="n"/>
+      <c r="AA129" s="8" t="n"/>
+      <c r="AB129" s="8" t="n">
         <v>20736</v>
       </c>
     </row>
@@ -8125,6 +8402,8 @@
       <c r="X130" s="8" t="n"/>
       <c r="Y130" s="8" t="n"/>
       <c r="Z130" s="8" t="n"/>
+      <c r="AA130" s="8" t="n"/>
+      <c r="AB130" s="8" t="n"/>
     </row>
     <row r="131">
       <c r="A131" s="7" t="n">
@@ -8193,6 +8472,8 @@
       <c r="Z131" s="8" t="n">
         <v>2654208</v>
       </c>
+      <c r="AA131" s="8" t="n"/>
+      <c r="AB131" s="8" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="7" t="n">
@@ -8244,7 +8525,9 @@
       <c r="Y132" s="8" t="n">
         <v>10368</v>
       </c>
-      <c r="Z132" s="8" t="n">
+      <c r="Z132" s="8" t="n"/>
+      <c r="AA132" s="8" t="n"/>
+      <c r="AB132" s="8" t="n">
         <v>10368</v>
       </c>
     </row>
@@ -8308,13 +8591,15 @@
         <v>295168</v>
       </c>
       <c r="W133" s="8" t="n">
-        <v>23900416</v>
+        <v>14463232</v>
       </c>
       <c r="X133" s="8" t="n"/>
       <c r="Y133" s="8" t="n"/>
       <c r="Z133" s="8" t="n">
         <v>23887872</v>
       </c>
+      <c r="AA133" s="8" t="n"/>
+      <c r="AB133" s="8" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="7" t="n">
@@ -8366,7 +8651,9 @@
       <c r="Y134" s="8" t="n">
         <v>12544</v>
       </c>
-      <c r="Z134" s="8" t="n">
+      <c r="Z134" s="8" t="n"/>
+      <c r="AA134" s="8" t="n"/>
+      <c r="AB134" s="8" t="n">
         <v>12544</v>
       </c>
     </row>
@@ -8430,13 +8717,15 @@
         <v>36880</v>
       </c>
       <c r="W135" s="8" t="n">
-        <v>829480000</v>
+        <v>92200000</v>
       </c>
       <c r="X135" s="8" t="n"/>
       <c r="Y135" s="8" t="n"/>
       <c r="Z135" s="8" t="n">
         <v>829440000</v>
       </c>
+      <c r="AA135" s="8" t="n"/>
+      <c r="AB135" s="8" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="7" t="n">
@@ -8498,13 +8787,15 @@
         <v>746820</v>
       </c>
       <c r="W136" s="8" t="n">
-        <v>16796970000</v>
+        <v>1867050000</v>
       </c>
       <c r="X136" s="8" t="n"/>
       <c r="Y136" s="8" t="n"/>
       <c r="Z136" s="8" t="n">
         <v>16796160000</v>
       </c>
+      <c r="AA136" s="8" t="n"/>
+      <c r="AB136" s="8" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="7" t="n">
@@ -8566,13 +8857,15 @@
         <v>110616</v>
       </c>
       <c r="W137" s="8" t="n">
-        <v>622095000</v>
+        <v>69135000</v>
       </c>
       <c r="X137" s="8" t="n"/>
       <c r="Y137" s="8" t="n"/>
       <c r="Z137" s="8" t="n">
         <v>622080000</v>
       </c>
+      <c r="AA137" s="8" t="n"/>
+      <c r="AB137" s="8" t="n"/>
     </row>
     <row r="138">
       <c r="A138" s="7" t="n">
@@ -8634,13 +8927,15 @@
         <v>2239974</v>
       </c>
       <c r="W138" s="8" t="n">
-        <v>12597423750</v>
+        <v>1399983750</v>
       </c>
       <c r="X138" s="8" t="n"/>
       <c r="Y138" s="8" t="n"/>
       <c r="Z138" s="8" t="n">
         <v>12597120000</v>
       </c>
+      <c r="AA138" s="8" t="n"/>
+      <c r="AB138" s="8" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="7" t="n">
@@ -8702,13 +8997,15 @@
         <v>110616</v>
       </c>
       <c r="W139" s="8" t="n">
-        <v>159698904</v>
+        <v>18694104</v>
       </c>
       <c r="X139" s="8" t="n"/>
       <c r="Y139" s="8" t="n"/>
       <c r="Z139" s="8" t="n">
         <v>159694848</v>
       </c>
+      <c r="AA139" s="8" t="n"/>
+      <c r="AB139" s="8" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="7" t="n">
@@ -8770,13 +9067,15 @@
         <v>2239974</v>
       </c>
       <c r="W140" s="8" t="n">
-        <v>3233902806</v>
+        <v>378555606</v>
       </c>
       <c r="X140" s="8" t="n"/>
       <c r="Y140" s="8" t="n"/>
       <c r="Z140" s="8" t="n">
         <v>3233820672</v>
       </c>
+      <c r="AA140" s="8" t="n"/>
+      <c r="AB140" s="8" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="7" t="n">
@@ -8838,13 +9137,15 @@
         <v>55320</v>
       </c>
       <c r="W141" s="8" t="n">
-        <v>19963032</v>
+        <v>2710680</v>
       </c>
       <c r="X141" s="8" t="n"/>
       <c r="Y141" s="8" t="n"/>
       <c r="Z141" s="8" t="n">
         <v>19961856</v>
       </c>
+      <c r="AA141" s="8" t="n"/>
+      <c r="AB141" s="8" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="7" t="n">
@@ -8906,13 +9207,15 @@
         <v>1120230</v>
       </c>
       <c r="W142" s="8" t="n">
-        <v>404251398</v>
+        <v>54891270</v>
       </c>
       <c r="X142" s="8" t="n"/>
       <c r="Y142" s="8" t="n"/>
       <c r="Z142" s="8" t="n">
         <v>404227584</v>
       </c>
+      <c r="AA142" s="8" t="n"/>
+      <c r="AB142" s="8" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="7" t="n">
@@ -8974,13 +9277,15 @@
         <v>36880</v>
       </c>
       <c r="W143" s="8" t="n">
-        <v>2986128</v>
+        <v>331920</v>
       </c>
       <c r="X143" s="8" t="n"/>
       <c r="Y143" s="8" t="n"/>
       <c r="Z143" s="8" t="n">
         <v>2985984</v>
       </c>
+      <c r="AA143" s="8" t="n"/>
+      <c r="AB143" s="8" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="7" t="n">
@@ -9042,13 +9347,15 @@
         <v>746820</v>
       </c>
       <c r="W144" s="8" t="n">
-        <v>60469092</v>
+        <v>6721380</v>
       </c>
       <c r="X144" s="8" t="n"/>
       <c r="Y144" s="8" t="n"/>
       <c r="Z144" s="8" t="n">
         <v>60466176</v>
       </c>
+      <c r="AA144" s="8" t="n"/>
+      <c r="AB144" s="8" t="n"/>
     </row>
     <row r="145">
       <c r="A145" s="7" t="n">
@@ -9110,13 +9417,15 @@
         <v>36880</v>
       </c>
       <c r="W145" s="8" t="n">
-        <v>1806480</v>
+        <v>331920</v>
       </c>
       <c r="X145" s="8" t="n"/>
       <c r="Y145" s="8" t="n"/>
       <c r="Z145" s="8" t="n">
         <v>1806336</v>
       </c>
+      <c r="AA145" s="8" t="n"/>
+      <c r="AB145" s="8" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="7" t="n">
@@ -9178,16 +9487,18 @@
         <v>746820</v>
       </c>
       <c r="W146" s="8" t="n">
-        <v>36581220</v>
+        <v>6721380</v>
       </c>
       <c r="X146" s="8" t="n"/>
       <c r="Y146" s="8" t="n"/>
       <c r="Z146" s="8" t="n">
         <v>36578304</v>
       </c>
+      <c r="AA146" s="8" t="n"/>
+      <c r="AB146" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
@@ -9195,7 +9506,8 @@
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:V1"/>
-    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="U1:U146">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0" stopIfTrue="1">
@@ -9209,7 +9521,12 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="W1:W146">
     <cfRule type="cellIs" priority="3" operator="equal" dxfId="2" stopIfTrue="1">
-      <formula>26544960000</formula>
+      <formula>13271040000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:Z146">
+    <cfRule type="cellIs" priority="4" operator="equal" dxfId="3" stopIfTrue="1">
+      <formula>26542080000</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9222,7 +9539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9264,11 +9581,21 @@
     <row r="4">
       <c r="A4" s="8" t="inlineStr">
         <is>
-          <t>Total GEMM (G_ops):</t>
+          <t>Total Forward GEMM (G_ops):</t>
         </is>
       </c>
       <c r="B4" s="8" t="n">
-        <v>288.237015714</v>
+        <v>216.428404386</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>Total Backward GEMM (G_ops):</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="n">
+        <v>288.224543232</v>
       </c>
     </row>
   </sheetData>
